--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.593927</v>
+        <v>3.299257</v>
       </c>
       <c r="H2">
-        <v>3.187854</v>
+        <v>6.598514</v>
       </c>
       <c r="I2">
-        <v>0.1926821744909273</v>
+        <v>0.04962738973437503</v>
       </c>
       <c r="J2">
-        <v>0.1419711187769724</v>
+        <v>0.03387355894069913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.889399666666667</v>
+        <v>12.97650433333333</v>
       </c>
       <c r="N2">
-        <v>17.668199</v>
+        <v>38.929513</v>
       </c>
       <c r="O2">
-        <v>0.8160192454225522</v>
+        <v>0.06907304296508091</v>
       </c>
       <c r="P2">
-        <v>0.8160192454225521</v>
+        <v>0.06907304296508089</v>
       </c>
       <c r="Q2">
-        <v>9.387273142490999</v>
+        <v>42.81282275728033</v>
       </c>
       <c r="R2">
-        <v>56.323638854946</v>
+        <v>256.876936543682</v>
       </c>
       <c r="S2">
-        <v>0.157232362634463</v>
+        <v>0.003427914823367302</v>
       </c>
       <c r="T2">
-        <v>0.1158511652161805</v>
+        <v>0.002339749792091111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.593927</v>
+        <v>3.299257</v>
       </c>
       <c r="H3">
-        <v>3.187854</v>
+        <v>6.598514</v>
       </c>
       <c r="I3">
-        <v>0.1926821744909273</v>
+        <v>0.04962738973437503</v>
       </c>
       <c r="J3">
-        <v>0.1419711187769724</v>
+        <v>0.03387355894069913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.327831666666667</v>
+        <v>172.5923843333333</v>
       </c>
       <c r="N3">
-        <v>3.983495</v>
+        <v>517.777153</v>
       </c>
       <c r="O3">
-        <v>0.1839807545774479</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="P3">
-        <v>0.1839807545774478</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="Q3">
-        <v>2.116466744955</v>
+        <v>569.4266321584404</v>
       </c>
       <c r="R3">
-        <v>12.69880046973</v>
+        <v>3416.559792950642</v>
       </c>
       <c r="S3">
-        <v>0.03544981185646427</v>
+        <v>0.04559255539543018</v>
       </c>
       <c r="T3">
-        <v>0.02611995356079185</v>
+        <v>0.03111955153616429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.813729</v>
+        <v>3.299257</v>
       </c>
       <c r="H4">
-        <v>2.441187</v>
+        <v>6.598514</v>
       </c>
       <c r="I4">
-        <v>0.09836778796414626</v>
+        <v>0.04962738973437503</v>
       </c>
       <c r="J4">
-        <v>0.1087182943553252</v>
+        <v>0.03387355894069913</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.889399666666667</v>
+        <v>2.297517333333333</v>
       </c>
       <c r="N4">
-        <v>17.668199</v>
+        <v>6.892552</v>
       </c>
       <c r="O4">
-        <v>0.8160192454225522</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="P4">
-        <v>0.8160192454225521</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="Q4">
-        <v>4.792375301357001</v>
+        <v>7.580100144621333</v>
       </c>
       <c r="R4">
-        <v>43.13137771221301</v>
+        <v>45.480600867728</v>
       </c>
       <c r="S4">
-        <v>0.08027000810838825</v>
+        <v>0.0006069195155775502</v>
       </c>
       <c r="T4">
-        <v>0.08871622052345939</v>
+        <v>0.0004142576124437306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>2.441187</v>
       </c>
       <c r="I5">
-        <v>0.09836778796414626</v>
+        <v>0.01224010321753148</v>
       </c>
       <c r="J5">
-        <v>0.1087182943553252</v>
+        <v>0.01253186577004588</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.327831666666667</v>
+        <v>12.97650433333333</v>
       </c>
       <c r="N5">
-        <v>3.983495</v>
+        <v>38.929513</v>
       </c>
       <c r="O5">
-        <v>0.1839807545774479</v>
+        <v>0.06907304296508091</v>
       </c>
       <c r="P5">
-        <v>0.1839807545774478</v>
+        <v>0.06907304296508089</v>
       </c>
       <c r="Q5">
-        <v>1.080495134285</v>
+        <v>10.559357894659</v>
       </c>
       <c r="R5">
-        <v>9.724456208565002</v>
+        <v>95.03422105193101</v>
       </c>
       <c r="S5">
-        <v>0.01809777985575802</v>
+        <v>0.0008454611754415771</v>
       </c>
       <c r="T5">
-        <v>0.02000207383186582</v>
+        <v>0.0008656141027670054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.145019</v>
+        <v>0.813729</v>
       </c>
       <c r="H6">
-        <v>6.435057</v>
+        <v>2.441187</v>
       </c>
       <c r="I6">
-        <v>0.2593010377792423</v>
+        <v>0.01224010321753148</v>
       </c>
       <c r="J6">
-        <v>0.2865853460301467</v>
+        <v>0.01253186577004588</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.889399666666667</v>
+        <v>172.5923843333333</v>
       </c>
       <c r="N6">
-        <v>17.668199</v>
+        <v>517.777153</v>
       </c>
       <c r="O6">
-        <v>0.8160192454225522</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="P6">
-        <v>0.8160192454225521</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="Q6">
-        <v>12.63287418359367</v>
+        <v>140.443428311179</v>
       </c>
       <c r="R6">
-        <v>113.695867652343</v>
+        <v>1263.990854800611</v>
       </c>
       <c r="S6">
-        <v>0.211594637185902</v>
+        <v>0.01124495136613123</v>
       </c>
       <c r="T6">
-        <v>0.2338591578166813</v>
+        <v>0.0115129928732309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.145019</v>
+        <v>0.813729</v>
       </c>
       <c r="H7">
-        <v>6.435057</v>
+        <v>2.441187</v>
       </c>
       <c r="I7">
-        <v>0.2593010377792423</v>
+        <v>0.01224010321753148</v>
       </c>
       <c r="J7">
-        <v>0.2865853460301467</v>
+        <v>0.01253186577004588</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.327831666666667</v>
+        <v>2.297517333333333</v>
       </c>
       <c r="N7">
-        <v>3.983495</v>
+        <v>6.892552</v>
       </c>
       <c r="O7">
-        <v>0.1839807545774479</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="P7">
-        <v>0.1839807545774478</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="Q7">
-        <v>2.848224153801667</v>
+        <v>1.869556482136</v>
       </c>
       <c r="R7">
-        <v>25.634017384215</v>
+        <v>16.826008339224</v>
       </c>
       <c r="S7">
-        <v>0.04770640059334031</v>
+        <v>0.0001496906759586793</v>
       </c>
       <c r="T7">
-        <v>0.05272618821346539</v>
+        <v>0.0001532587940479741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.768765</v>
+        <v>2.905657666666666</v>
       </c>
       <c r="H8">
-        <v>1.53753</v>
+        <v>8.716972999999999</v>
       </c>
       <c r="I8">
-        <v>0.09293230610468214</v>
+        <v>0.04370687262566737</v>
       </c>
       <c r="J8">
-        <v>0.06847391827014609</v>
+        <v>0.0447486962519111</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.889399666666667</v>
+        <v>12.97650433333333</v>
       </c>
       <c r="N8">
-        <v>17.668199</v>
+        <v>38.929513</v>
       </c>
       <c r="O8">
-        <v>0.8160192454225522</v>
+        <v>0.06907304296508091</v>
       </c>
       <c r="P8">
-        <v>0.8160192454225521</v>
+        <v>0.06907304296508089</v>
       </c>
       <c r="Q8">
-        <v>4.527564334745001</v>
+        <v>37.70527930268322</v>
       </c>
       <c r="R8">
-        <v>27.16538600847</v>
+        <v>339.347513724149</v>
       </c>
       <c r="S8">
-        <v>0.07583455030292037</v>
+        <v>0.003018966690742041</v>
       </c>
       <c r="T8">
-        <v>0.05587603511793012</v>
+        <v>0.003090928618839609</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,25 +968,25 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.768765</v>
+        <v>2.905657666666666</v>
       </c>
       <c r="H9">
-        <v>1.53753</v>
+        <v>8.716972999999999</v>
       </c>
       <c r="I9">
-        <v>0.09293230610468214</v>
+        <v>0.04370687262566737</v>
       </c>
       <c r="J9">
-        <v>0.06847391827014609</v>
+        <v>0.0447486962519111</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.327831666666667</v>
+        <v>172.5923843333333</v>
       </c>
       <c r="N9">
-        <v>3.983495</v>
+        <v>517.777153</v>
       </c>
       <c r="O9">
-        <v>0.1839807545774479</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="P9">
-        <v>0.1839807545774478</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="Q9">
-        <v>1.020790511225</v>
+        <v>501.4943847464299</v>
       </c>
       <c r="R9">
-        <v>6.124743067350001</v>
+        <v>4513.449462717868</v>
       </c>
       <c r="S9">
-        <v>0.01709775580176178</v>
+        <v>0.04015339154471943</v>
       </c>
       <c r="T9">
-        <v>0.01259788315221597</v>
+        <v>0.04111051223242879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.83705</v>
+        <v>2.905657666666666</v>
       </c>
       <c r="H10">
-        <v>5.511150000000001</v>
+        <v>8.716972999999999</v>
       </c>
       <c r="I10">
-        <v>0.222072145492584</v>
+        <v>0.04370687262566737</v>
       </c>
       <c r="J10">
-        <v>0.245439135935244</v>
+        <v>0.0447486962519111</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.889399666666667</v>
+        <v>2.297517333333333</v>
       </c>
       <c r="N10">
-        <v>17.668199</v>
+        <v>6.892552</v>
       </c>
       <c r="O10">
-        <v>0.8160192454225522</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="P10">
-        <v>0.8160192454225521</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="Q10">
-        <v>10.81912165765</v>
+        <v>6.675798853899555</v>
       </c>
       <c r="R10">
-        <v>97.37209491885002</v>
+        <v>60.082189685096</v>
       </c>
       <c r="S10">
-        <v>0.1812151445942256</v>
+        <v>0.0005345143902058943</v>
       </c>
       <c r="T10">
-        <v>0.200283058503041</v>
+        <v>0.0005472554006426999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.83705</v>
+        <v>1.3440755</v>
       </c>
       <c r="H11">
-        <v>5.511150000000001</v>
+        <v>2.688151</v>
       </c>
       <c r="I11">
-        <v>0.222072145492584</v>
+        <v>0.02021756979554033</v>
       </c>
       <c r="J11">
-        <v>0.245439135935244</v>
+        <v>0.01379965873225386</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.327831666666667</v>
+        <v>12.97650433333333</v>
       </c>
       <c r="N11">
-        <v>3.983495</v>
+        <v>38.929513</v>
       </c>
       <c r="O11">
-        <v>0.1839807545774479</v>
+        <v>0.06907304296508091</v>
       </c>
       <c r="P11">
-        <v>0.1839807545774478</v>
+        <v>0.06907304296508089</v>
       </c>
       <c r="Q11">
-        <v>2.43929316325</v>
+        <v>17.44140155007717</v>
       </c>
       <c r="R11">
-        <v>21.95363846925001</v>
+        <v>104.648409300463</v>
       </c>
       <c r="S11">
-        <v>0.0408570008983584</v>
+        <v>0.001396489067136879</v>
       </c>
       <c r="T11">
-        <v>0.04515607743220298</v>
+        <v>0.0009531844205164242</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.113821666666667</v>
+        <v>1.3440755</v>
       </c>
       <c r="H12">
-        <v>3.341465</v>
+        <v>2.688151</v>
       </c>
       <c r="I12">
-        <v>0.1346445481684181</v>
+        <v>0.02021756979554033</v>
       </c>
       <c r="J12">
-        <v>0.1488121866321657</v>
+        <v>0.01379965873225386</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.889399666666667</v>
+        <v>172.5923843333333</v>
       </c>
       <c r="N12">
-        <v>17.668199</v>
+        <v>517.777153</v>
       </c>
       <c r="O12">
-        <v>0.8160192454225522</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="P12">
-        <v>0.8160192454225521</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="Q12">
-        <v>6.559740952392779</v>
+        <v>231.9771952690172</v>
       </c>
       <c r="R12">
-        <v>59.03766857153501</v>
+        <v>1391.863171614103</v>
       </c>
       <c r="S12">
-        <v>0.109872542596653</v>
+        <v>0.01857382940746675</v>
       </c>
       <c r="T12">
-        <v>0.1214336082452599</v>
+        <v>0.01267771100909865</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.113821666666667</v>
+        <v>1.3440755</v>
       </c>
       <c r="H13">
-        <v>3.341465</v>
+        <v>2.688151</v>
       </c>
       <c r="I13">
-        <v>0.1346445481684181</v>
+        <v>0.02021756979554033</v>
       </c>
       <c r="J13">
-        <v>0.1488121866321657</v>
+        <v>0.01379965873225386</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.327831666666667</v>
+        <v>2.297517333333333</v>
       </c>
       <c r="N13">
-        <v>3.983495</v>
+        <v>6.892552</v>
       </c>
       <c r="O13">
-        <v>0.1839807545774479</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="P13">
-        <v>0.1839807545774478</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="Q13">
-        <v>1.478967680019445</v>
+        <v>3.088036758558667</v>
       </c>
       <c r="R13">
-        <v>13.310709120175</v>
+        <v>18.528220551352</v>
       </c>
       <c r="S13">
-        <v>0.02477200557176508</v>
+        <v>0.0002472513209366999</v>
       </c>
       <c r="T13">
-        <v>0.02737857838690584</v>
+        <v>0.0001687633026387801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>57.59301733333334</v>
+      </c>
+      <c r="H14">
+        <v>172.779052</v>
+      </c>
+      <c r="I14">
+        <v>0.8663135721709313</v>
+      </c>
+      <c r="J14">
+        <v>0.8869635499205003</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.97650433333333</v>
+      </c>
+      <c r="N14">
+        <v>38.929513</v>
+      </c>
+      <c r="O14">
+        <v>0.06907304296508091</v>
+      </c>
+      <c r="P14">
+        <v>0.06907304296508089</v>
+      </c>
+      <c r="Q14">
+        <v>747.3560389957418</v>
+      </c>
+      <c r="R14">
+        <v>6726.204350961676</v>
+      </c>
+      <c r="S14">
+        <v>0.05983891459179545</v>
+      </c>
+      <c r="T14">
+        <v>0.06126527139211939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>57.59301733333334</v>
+      </c>
+      <c r="H15">
+        <v>172.779052</v>
+      </c>
+      <c r="I15">
+        <v>0.8663135721709313</v>
+      </c>
+      <c r="J15">
+        <v>0.8869635499205003</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>172.5923843333333</v>
+      </c>
+      <c r="N15">
+        <v>517.777153</v>
+      </c>
+      <c r="O15">
+        <v>0.918697429775355</v>
+      </c>
+      <c r="P15">
+        <v>0.918697429775355</v>
+      </c>
+      <c r="Q15">
+        <v>9940.116182510996</v>
+      </c>
+      <c r="R15">
+        <v>89461.04564259895</v>
+      </c>
+      <c r="S15">
+        <v>0.7958800521329411</v>
+      </c>
+      <c r="T15">
+        <v>0.8148511336163884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>57.59301733333334</v>
+      </c>
+      <c r="H16">
+        <v>172.779052</v>
+      </c>
+      <c r="I16">
+        <v>0.8663135721709313</v>
+      </c>
+      <c r="J16">
+        <v>0.8869635499205003</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.297517333333333</v>
+      </c>
+      <c r="N16">
+        <v>6.892552</v>
+      </c>
+      <c r="O16">
+        <v>0.01222952725956408</v>
+      </c>
+      <c r="P16">
+        <v>0.01222952725956408</v>
+      </c>
+      <c r="Q16">
+        <v>132.3209556023004</v>
+      </c>
+      <c r="R16">
+        <v>1190.888600420704</v>
+      </c>
+      <c r="S16">
+        <v>0.01059460544619474</v>
+      </c>
+      <c r="T16">
+        <v>0.01084714491199249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5248303333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.574491</v>
+      </c>
+      <c r="I17">
+        <v>0.007894492455954567</v>
+      </c>
+      <c r="J17">
+        <v>0.008082670384589669</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.97650433333333</v>
+      </c>
+      <c r="N17">
+        <v>38.929513</v>
+      </c>
+      <c r="O17">
+        <v>0.06907304296508091</v>
+      </c>
+      <c r="P17">
+        <v>0.06907304296508089</v>
+      </c>
+      <c r="Q17">
+        <v>6.810463094764779</v>
+      </c>
+      <c r="R17">
+        <v>61.29416785288301</v>
+      </c>
+      <c r="S17">
+        <v>0.0005452966165976568</v>
+      </c>
+      <c r="T17">
+        <v>0.0005582946387473492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5248303333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.574491</v>
+      </c>
+      <c r="I18">
+        <v>0.007894492455954567</v>
+      </c>
+      <c r="J18">
+        <v>0.008082670384589669</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>172.5923843333333</v>
+      </c>
+      <c r="N18">
+        <v>517.777153</v>
+      </c>
+      <c r="O18">
+        <v>0.918697429775355</v>
+      </c>
+      <c r="P18">
+        <v>0.918697429775355</v>
+      </c>
+      <c r="Q18">
+        <v>90.58171860045813</v>
+      </c>
+      <c r="R18">
+        <v>815.235467404123</v>
+      </c>
+      <c r="S18">
+        <v>0.00725264992866639</v>
+      </c>
+      <c r="T18">
+        <v>0.007425528508043909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5248303333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.574491</v>
+      </c>
+      <c r="I19">
+        <v>0.007894492455954567</v>
+      </c>
+      <c r="J19">
+        <v>0.008082670384589669</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.297517333333333</v>
+      </c>
+      <c r="N19">
+        <v>6.892552</v>
+      </c>
+      <c r="O19">
+        <v>0.01222952725956408</v>
+      </c>
+      <c r="P19">
+        <v>0.01222952725956408</v>
+      </c>
+      <c r="Q19">
+        <v>1.205806787892445</v>
+      </c>
+      <c r="R19">
+        <v>10.852261091032</v>
+      </c>
+      <c r="S19">
+        <v>9.654591069051938E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.884723779841067E-05</v>
       </c>
     </row>
   </sheetData>
